--- a/dashboard_loader/health_diabetes_uploader/health_diabetes.xlsx
+++ b/dashboard_loader/health_diabetes_uploader/health_diabetes.xlsx
@@ -110,7 +110,7 @@
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,12 +131,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -212,7 +206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,77 +234,61 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,18 +297,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_AIHW RoGS indicator concordance_NHA PI 13 4 yo health check" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 152" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_2009 Attachment 7A.4_Tobacco" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_ABS NHA PEx 2010 final version ACTIVE" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -358,6 +332,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -549,8 +527,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dashboard_loader/health_diabetes_uploader/health_diabetes.xlsx
+++ b/dashboard_loader/health_diabetes_uploader/health_diabetes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Reduce the prevalence of Type 2 Diabetes</t>
   </si>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Influences</t>
   </si>
   <si>
-    <t xml:space="preserve">The prevalence of Type 2 diabetes is increased through "hereditary factors and lifestyle risk factors including poor diet, insufficient physical activity and overweight or obesity" (DHA, 2013).</t>
+    <t xml:space="preserve">The prevalence of Type 2 diabetes is increased through hereditary factors and lifestyle risk factors including poor diet, insufficient physical activity and being overweight or obese.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -119,7 +119,10 @@
     <t xml:space="preserve">Indigenous diabetes prevalence is derived from fasting plasma glucose test results.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from: ABS unpublished, Australian Health Survey 2011–13 (2011-12 NHMS component); ABS unpublished, Australian Aboriginal and Torres Strait Islander Health Survey, 2012-13 (National Aboriginal and Torres Strait Islander Health Measures Survey component).</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS unpublished, Australian Health Survey 2011–13 (2011-12 NHMS component); ABS unpublished, Australian Aboriginal and Torres Strait Islander Health Survey, 2012-13 (National Aboriginal and Torres Strait Islander Health Measures Survey component).</t>
   </si>
 </sst>
 </file>
@@ -130,11 +133,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,6 +154,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -166,19 +251,55 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,12 +308,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -210,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,7 +370,55 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,48 +428,124 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -296,13 +556,13 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,15 +757,15 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.290816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,11 +814,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -582,16 +842,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
